--- a/files/Donors.xlsx
+++ b/files/Donors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,7 +436,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1234567890</v>
+        <v>9959167377</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
